--- a/site/StructureDefinition-tnm-stage-group.xlsx
+++ b/site/StructureDefinition-tnm-stage-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T07:55:24+00:00</t>
+    <t>2024-02-29T10:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-tnm-stage-group.xlsx
+++ b/site/StructureDefinition-tnm-stage-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:08:17+00:00</t>
+    <t>2024-02-29T10:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-tnm-stage-group.xlsx
+++ b/site/StructureDefinition-tnm-stage-group.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/tnm-stage-group</t>
+    <t>http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/tnm-stage-group</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:35:30+00:00</t>
+    <t>2024-04-07T13:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/cancer-stage-group</t>
+    <t>http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/cancer-stage-group</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -653,7 +653,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://krebsregister-rlp.de/fhir/tumorboard/ValueSet/tnm-stage-group-staging-type-vs</t>
+    <t>http://idg-rlp.de/fhir/tumorkonferenzen/ValueSet/tnm-stage-group-staging-type-vs</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -677,7 +677,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/TumorPatient)
+    <t xml:space="preserve">Reference(http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/TumorPatient)
 </t>
   </si>
   <si>
@@ -708,7 +708,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/Diagnose)
+    <t xml:space="preserve">Reference(http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/Diagnose)
 </t>
   </si>
   <si>
@@ -862,7 +862,7 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>http://krebsregister-rlp.de/fhir/tumorboard/ValueSet/tnm-stage-group-vs</t>
+    <t>http://idg-rlp.de/fhir/tumorkonferenzen/ValueSet/tnm-stage-group-vs</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -1024,7 +1024,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://krebsregister-rlp.de/fhir/tumorboard/ValueSet/tnm-staging-method-vs</t>
+    <t>http://idg-rlp.de/fhir/tumorkonferenzen/ValueSet/tnm-staging-method-vs</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1315,7 +1315,7 @@
     <t>tnmPrimaryTumorCategory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/tnm-primary-tumor-category)
+    <t xml:space="preserve">Reference(http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/tnm-primary-tumor-category)
 </t>
   </si>
   <si>
@@ -1334,7 +1334,7 @@
     <t>tnmRegionalNodesCategory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/tnm-regional-nodes-category)
+    <t xml:space="preserve">Reference(http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/tnm-regional-nodes-category)
 </t>
   </si>
   <si>
@@ -1350,7 +1350,7 @@
     <t>tnmDistantMetastasesCategory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/tnm-distant-metastases-category)
+    <t xml:space="preserve">Reference(http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/tnm-distant-metastases-category)
 </t>
   </si>
   <si>
@@ -1812,7 +1812,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="79.75390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="76.50390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="60.765625" customWidth="true" bestFit="true"/>
